--- a/Program/Other/LM075_底稿_B041金融機構承作「自然人購置住宅貸款」統計表.xlsx
+++ b/Program/Other/LM075_底稿_B041金融機構承作「自然人購置住宅貸款」統計表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\iTX\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F01EF2D-2231-4A1D-B9ED-88BF39EA0FE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8092E0-39AE-4A89-810B-CDDA3737E325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOA" sheetId="88" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>加權平均
 貸款成數(%)</t>
@@ -1632,105 +1632,99 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="47" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="25" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="25" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="36" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="36" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="36" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="36" fillId="29" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1741,50 +1735,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1864,9 +1858,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1904,9 +1898,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1939,26 +1933,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1991,26 +1968,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2186,55 +2146,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905069EA-4747-4BF3-8D8A-6E16A7A2B112}">
   <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="7" customWidth="1"/>
     <col min="4" max="4" width="19" style="7" customWidth="1"/>
-    <col min="5" max="7" width="14.88671875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="14.90625" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="7" customWidth="1"/>
-    <col min="13" max="29" width="12.109375" style="7" hidden="1" customWidth="1"/>
-    <col min="30" max="62" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="7"/>
+    <col min="9" max="10" width="14.90625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="7" customWidth="1"/>
+    <col min="13" max="29" width="12.08984375" style="7" hidden="1" customWidth="1"/>
+    <col min="30" max="62" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="39" customHeight="1">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="16" t="str">
         <f>IF(COUNTBLANK(K7:K14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="BA1" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(E3," ",""),"　","")</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BB1" s="2" t="str">
+        <v/>
+      </c>
+      <c r="BB1" s="2" t="e">
         <f>LEFT(BA1,FIND("月",BA1,1))</f>
-        <v>民國年月</v>
-      </c>
-      <c r="BC1" s="3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC1" s="3" t="e">
         <f>MID(BA1,FIND("民國",BA1,1)+2,FIND("年",BA1,1)-FIND("民國",BA1,1)-2)</f>
-        <v/>
-      </c>
-      <c r="BD1" s="3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BD1" s="3" t="e">
         <f>MID(BA1,FIND("年",BA1,1)+1,FIND("月",BA1,1)-FIND("年",BA1,1)-1)</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="BE1" s="3" t="e">
         <f>(BC1+1911) &amp; RIGHT("0" &amp; BD1,2)</f>
@@ -2260,615 +2220,725 @@
       <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="1:62" ht="28.5" customHeight="1">
       <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="39"/>
-    </row>
-    <row r="5" spans="1:62" s="8" customFormat="1" ht="16.2">
-      <c r="A5" s="40" t="s">
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:62" s="2" customFormat="1" ht="17">
+      <c r="A5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="34" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="34" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
-    </row>
-    <row r="6" spans="1:62" s="13" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="18" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="46"/>
+      <c r="M6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="20" t="s">
+      <c r="S6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="20" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="20" t="s">
+      <c r="X6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AB6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0</v>
+      </c>
       <c r="K7" s="1" t="str">
         <f>M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;X7&amp;AB7</f>
         <v/>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999),"[自然人全國第3戶-撥款戶數]須為小於9位之正數,",IF(C7&lt;&gt;INT(C7),"[自然人全國第3戶-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>IF(D7="","",IF(OR(D7&lt;0,D7&gt;99999999.99),"[自然人全國第3戶-撥款金額]須為小於9位之正數,",IF(D7&lt;&gt;ROUND(D7,2),"[自然人全國第3戶-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"[自然人全國第3戶-加權平均貸款成數]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"[自然人全國第3戶-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>IF(F7="","",IF(F7&gt;99.99,"[自然人全國第3戶-加權平均貸款利率]整數位數須小於3位數,",IF(F7&lt;&gt;ROUND(F7,2),"[自然人全國第3戶-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(G7="","",IF(OR(G7&lt;0,G7&gt;99999999),"[自然人高價住宅貸款-撥款戶數]須為小於9位之正數,",IF(G7&lt;&gt;INT(G7),"[自然人高價住宅貸款-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(H7="","",IF(OR(H7&lt;0,H7&gt;99999999.99),"[自然人高價住宅貸款-撥款金額]須為小於9位之正數,",IF(H7&lt;&gt;ROUND(H7,2),"[自然人高價住宅貸款-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>IF(I7="","",IF(I7&gt;99.99,"[自然人高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I7&lt;&gt;ROUND(I7,2),"[自然人高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"[自然人高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"[自然人高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14" t="str">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13" t="str">
         <f>IF(O7="",IF(E7&gt;60,"自然人全國第3戶貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="14" t="str">
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="13" t="str">
         <f>IF(S7="",IF(I7&gt;60,"自然人高價住宅貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AC7" s="13"/>
+      <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0</v>
+      </c>
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0</v>
+      </c>
       <c r="K8" s="1" t="str">
         <f t="shared" ref="K8:K13" si="0">M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;X8&amp;AB8</f>
         <v/>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="M8" s="11" t="str">
         <f t="shared" ref="M8:M14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999),"[自然人全國第3戶-撥款戶數]須為小於9位之正數,",IF(C8&lt;&gt;INT(C8),"[自然人全國第3戶-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="N8" s="11" t="str">
         <f t="shared" ref="N8:N14" si="2">IF(D8="","",IF(OR(D8&lt;0,D8&gt;99999999.99),"[自然人全國第3戶-撥款金額]須為小於9位之正數,",IF(D8&lt;&gt;ROUND(D8,2),"[自然人全國第3戶-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="12" t="str">
+      <c r="O8" s="11" t="str">
         <f t="shared" ref="O8:O14" si="3">IF(E8="","",IF(E8&gt;99.99,"[自然人全國第3戶-加權平均貸款成數]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"[自然人全國第3戶-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="12" t="str">
+      <c r="P8" s="11" t="str">
         <f t="shared" ref="P8:P14" si="4">IF(F8="","",IF(F8&gt;99.99,"[自然人全國第3戶-加權平均貸款利率]整數位數須小於3位數,",IF(F8&lt;&gt;ROUND(F8,2),"[自然人全國第3戶-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="12" t="str">
+      <c r="Q8" s="11" t="str">
         <f t="shared" ref="Q8:Q14" si="5">IF(G8="","",IF(OR(G8&lt;0,G8&gt;99999999),"[自然人高價住宅貸款-撥款戶數]須為小於9位之正數,",IF(G8&lt;&gt;INT(G8),"[自然人高價住宅貸款-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="12" t="str">
+      <c r="R8" s="11" t="str">
         <f t="shared" ref="R8:R14" si="6">IF(H8="","",IF(OR(H8&lt;0,H8&gt;99999999.99),"[自然人高價住宅貸款-撥款金額]須為小於9位之正數,",IF(H8&lt;&gt;ROUND(H8,2),"[自然人高價住宅貸款-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="12" t="str">
+      <c r="S8" s="11" t="str">
         <f t="shared" ref="S8:S14" si="7">IF(I8="","",IF(I8&gt;99.99,"[自然人高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I8&lt;&gt;ROUND(I8,2),"[自然人高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="12" t="str">
+      <c r="T8" s="11" t="str">
         <f t="shared" ref="T8:T14" si="8">IF(J8="","",IF(J8&gt;99.99,"[自然人高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"[自然人高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X8" s="14" t="str">
+      <c r="X8" s="13" t="str">
         <f t="shared" ref="X8:X13" si="9">IF(O8="",IF(E8&gt;60,"自然人全國第3戶貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="14" t="str">
+      <c r="AB8" s="13" t="str">
         <f t="shared" ref="AB8:AB13" si="10">IF(S8="",IF(I8&gt;60,"自然人高價住宅貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0</v>
+      </c>
       <c r="K9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O9" s="12" t="str">
+      <c r="O9" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q9" s="12" t="str">
+      <c r="Q9" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R9" s="12" t="str">
+      <c r="R9" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S9" s="12" t="str">
+      <c r="S9" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T9" s="12" t="str">
+      <c r="T9" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X9" s="14" t="str">
+      <c r="X9" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB9" s="14" t="str">
+      <c r="AB9" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0</v>
+      </c>
       <c r="K10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="12" t="str">
+      <c r="M10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N10" s="12" t="str">
+      <c r="N10" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O10" s="12" t="str">
+      <c r="O10" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X10" s="14" t="str">
+      <c r="X10" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB10" s="14" t="str">
+      <c r="AB10" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0</v>
+      </c>
       <c r="K11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="12" t="str">
+      <c r="M11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O11" s="12" t="str">
+      <c r="O11" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q11" s="12" t="str">
+      <c r="Q11" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R11" s="12" t="str">
+      <c r="R11" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S11" s="12" t="str">
+      <c r="S11" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T11" s="12" t="str">
+      <c r="T11" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X11" s="14" t="str">
+      <c r="X11" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB11" s="14" t="str">
+      <c r="AB11" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0</v>
+      </c>
       <c r="K12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O12" s="12" t="str">
+      <c r="O12" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q12" s="12" t="str">
+      <c r="Q12" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R12" s="12" t="str">
+      <c r="R12" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S12" s="12" t="str">
+      <c r="S12" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T12" s="12" t="str">
+      <c r="T12" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X12" s="14" t="str">
+      <c r="X12" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB12" s="14" t="str">
+      <c r="AB12" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="N13" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O13" s="12" t="str">
+      <c r="O13" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P13" s="12" t="str">
+      <c r="P13" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q13" s="12" t="str">
+      <c r="Q13" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R13" s="12" t="str">
+      <c r="R13" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S13" s="12" t="str">
+      <c r="S13" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T13" s="12" t="str">
+      <c r="T13" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X13" s="14" t="str">
+      <c r="X13" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB13" s="14" t="str">
+      <c r="AB13" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f>SUM(D7:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <f>IF(D14=0,0,ROUND(SUMPRODUCT(D7:D13,E7:E13)/D14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>IF(D14=0,0,ROUND(SUMPRODUCT(D7:D13,F7:F13)/D14,2))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <f>SUM(G7:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f>SUM(H7:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f>IF(H14=0,0,ROUND(SUMPRODUCT(H7:H13,I7:I13)/H14,2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f>IF(H14=0,0,ROUND(SUMPRODUCT(H7:H13,J7:J13)/H14,2))</f>
         <v>0</v>
       </c>
@@ -2876,175 +2946,175 @@
         <f>M14&amp;N14&amp;O14&amp;P14&amp;Q14&amp;R14&amp;S14&amp;T14&amp;X14&amp;AB14&amp;V14&amp;W14&amp;Y14&amp;Z14&amp;AA14&amp;AC14</f>
         <v/>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="N14" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O14" s="12" t="str">
+      <c r="O14" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P14" s="12" t="str">
+      <c r="P14" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q14" s="12" t="str">
+      <c r="Q14" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R14" s="12" t="str">
+      <c r="R14" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S14" s="12" t="str">
+      <c r="S14" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T14" s="12" t="str">
+      <c r="T14" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="15" t="str">
+      <c r="V14" s="14" t="str">
         <f>IF(M14="",IF(C14&lt;&gt;SUM(C7:C13),"[自然人全國第3戶-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="W14" s="15" t="str">
+      <c r="W14" s="14" t="str">
         <f>IF(N14="",IF(D14&lt;&gt;SUM(D7:D13),"[自然人全國第3戶-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="13" t="str">
         <f>IF(O14="",IF(E14&gt;60,"自然人全國第3戶貸款成數最高為6成,",IF(D14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(D7:D13,E7:E13)/D14,2),"自然人全國第3戶貸款成數_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="15" t="str">
+      <c r="Y14" s="14" t="str">
         <f>IF(P14="",IF(D14=0,"",IF(F14&lt;&gt;ROUND(SUMPRODUCT(D7:D13,F7:F13)/D14,2),"[自然人全國第3戶-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="15" t="str">
+      <c r="Z14" s="14" t="str">
         <f>IF(Q14="",IF(G14&lt;&gt;SUM(G7:G13),"[自然人高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="15" t="str">
+      <c r="AA14" s="14" t="str">
         <f>IF(R14="",IF(H14&lt;&gt;SUM(H7:H13),"[自然人高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="14" t="str">
+      <c r="AB14" s="13" t="str">
         <f>IF(S14="",IF(I14&gt;60,"自然人高價住宅貸款成數最高為6成,",IF(H14=0,"",IF(I14&lt;&gt;ROUND(SUMPRODUCT(H7:H13,I7:I13)/H14,2),"自然人高價住宅貸款成數_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="15" t="str">
+      <c r="AC14" s="14" t="str">
         <f>IF(T14="",IF(H14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(H7:H13,J7:J13)/H14,2),"[自然人高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62" ht="36.75" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="30" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="27" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="27" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.8">
-      <c r="A17" s="30" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5">
+      <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="27" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.8">
-      <c r="A18" s="30" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5">
+      <c r="A18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="27" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="27" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.2">
-      <c r="A20" s="26" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="17">
+      <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.2">
+    <row r="21" spans="1:10" ht="17">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.2">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:10" ht="17">
+      <c r="A22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.2">
+    <row r="23" spans="1:10" ht="17">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.2">
+    <row r="24" spans="1:10" ht="17">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.2">
+    <row r="25" spans="1:10" ht="17">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.2">
+    <row r="26" spans="1:10" ht="17">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.2">
+    <row r="27" spans="1:10" ht="17">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3090,40 +3160,40 @@
   </sheetPr>
   <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="7" customWidth="1"/>
     <col min="4" max="4" width="19" style="7" customWidth="1"/>
-    <col min="5" max="7" width="14.88671875" style="7" customWidth="1"/>
+    <col min="5" max="7" width="14.90625" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="7" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" style="7" customWidth="1"/>
-    <col min="13" max="29" width="12.109375" style="7" hidden="1" customWidth="1"/>
-    <col min="30" max="62" width="8.88671875" style="7" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="7"/>
+    <col min="9" max="10" width="14.90625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="3.6328125" style="7" customWidth="1"/>
+    <col min="13" max="29" width="12.08984375" style="7" hidden="1" customWidth="1"/>
+    <col min="30" max="62" width="8.90625" style="7" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.90625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="39" customHeight="1">
-      <c r="A1" s="17" t="str">
+      <c r="A1" s="16" t="str">
         <f>IF(COUNTBLANK(K7:K14)=8,"","本表有誤")</f>
         <v/>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="BA1" s="2" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(E3," ",""),"　","")</f>
         <v>民國年月</v>
@@ -3164,615 +3234,615 @@
       <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:62" ht="28.5" customHeight="1">
       <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:62" ht="18" customHeight="1">
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="39"/>
-    </row>
-    <row r="5" spans="1:62" s="8" customFormat="1" ht="16.2">
-      <c r="A5" s="40" t="s">
+      <c r="N4" s="38"/>
+    </row>
+    <row r="5" spans="1:62" s="2" customFormat="1" ht="17">
+      <c r="A5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47" t="s">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="34" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="36"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
       <c r="U5" s="7"/>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="34" t="s">
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
-    </row>
-    <row r="6" spans="1:62" s="13" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="18" t="s">
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+    </row>
+    <row r="6" spans="1:62" s="12" customFormat="1" ht="33" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="M6" s="20" t="s">
+      <c r="K6" s="46"/>
+      <c r="M6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="21" t="s">
+      <c r="R6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="20" t="s">
+      <c r="S6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="20" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="X6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="20" t="s">
+      <c r="X6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="20" t="s">
+      <c r="AB6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="1" t="str">
         <f>M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7&amp;X7&amp;AB7</f>
         <v/>
       </c>
-      <c r="M7" s="12" t="str">
+      <c r="M7" s="11" t="str">
         <f>IF(C7="","",IF(OR(C7&lt;0,C7&gt;99999999),"[自然人全國第3戶-撥款戶數]須為小於9位之正數,",IF(C7&lt;&gt;INT(C7),"[自然人全國第3戶-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="N7" s="12" t="str">
+      <c r="N7" s="11" t="str">
         <f>IF(D7="","",IF(OR(D7&lt;0,D7&gt;99999999.99),"[自然人全國第3戶-撥款金額]須為小於9位之正數,",IF(D7&lt;&gt;ROUND(D7,2),"[自然人全國第3戶-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O7" s="12" t="str">
+      <c r="O7" s="11" t="str">
         <f>IF(E7="","",IF(E7&gt;99.99,"[自然人全國第3戶-加權平均貸款成數]整數位數須小於3位數,",IF(E7&lt;&gt;ROUND(E7,2),"[自然人全國第3戶-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P7" s="12" t="str">
+      <c r="P7" s="11" t="str">
         <f>IF(F7="","",IF(F7&gt;99.99,"[自然人全國第3戶-加權平均貸款利率]整數位數須小於3位數,",IF(F7&lt;&gt;ROUND(F7,2),"[自然人全國第3戶-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q7" s="12" t="str">
+      <c r="Q7" s="11" t="str">
         <f>IF(G7="","",IF(OR(G7&lt;0,G7&gt;99999999),"[自然人高價住宅貸款-撥款戶數]須為小於9位之正數,",IF(G7&lt;&gt;INT(G7),"[自然人高價住宅貸款-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R7" s="12" t="str">
+      <c r="R7" s="11" t="str">
         <f>IF(H7="","",IF(OR(H7&lt;0,H7&gt;99999999.99),"[自然人高價住宅貸款-撥款金額]須為小於9位之正數,",IF(H7&lt;&gt;ROUND(H7,2),"[自然人高價住宅貸款-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S7" s="12" t="str">
+      <c r="S7" s="11" t="str">
         <f>IF(I7="","",IF(I7&gt;99.99,"[自然人高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I7&lt;&gt;ROUND(I7,2),"[自然人高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T7" s="12" t="str">
+      <c r="T7" s="11" t="str">
         <f>IF(J7="","",IF(J7&gt;99.99,"[自然人高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J7&lt;&gt;ROUND(J7,2),"[自然人高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14" t="str">
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="13" t="str">
         <f>IF(O7="",IF(E7&gt;60,"自然人全國第3戶貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="14" t="str">
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="13" t="str">
         <f>IF(S7="",IF(I7&gt;60,"自然人高價住宅貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AC7" s="13"/>
+      <c r="AC7" s="12"/>
     </row>
     <row r="8" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="1" t="str">
         <f t="shared" ref="K8:K13" si="0">M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8&amp;X8&amp;AB8</f>
         <v/>
       </c>
-      <c r="M8" s="12" t="str">
+      <c r="M8" s="11" t="str">
         <f t="shared" ref="M8:M14" si="1">IF(C8="","",IF(OR(C8&lt;0,C8&gt;99999999),"[自然人全國第3戶-撥款戶數]須為小於9位之正數,",IF(C8&lt;&gt;INT(C8),"[自然人全國第3戶-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="N8" s="12" t="str">
+      <c r="N8" s="11" t="str">
         <f t="shared" ref="N8:N14" si="2">IF(D8="","",IF(OR(D8&lt;0,D8&gt;99999999.99),"[自然人全國第3戶-撥款金額]須為小於9位之正數,",IF(D8&lt;&gt;ROUND(D8,2),"[自然人全國第3戶-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="O8" s="12" t="str">
+      <c r="O8" s="11" t="str">
         <f t="shared" ref="O8:O14" si="3">IF(E8="","",IF(E8&gt;99.99,"[自然人全國第3戶-加權平均貸款成數]整數位數須小於3位數,",IF(E8&lt;&gt;ROUND(E8,2),"[自然人全國第3戶-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="P8" s="12" t="str">
+      <c r="P8" s="11" t="str">
         <f t="shared" ref="P8:P14" si="4">IF(F8="","",IF(F8&gt;99.99,"[自然人全國第3戶-加權平均貸款利率]整數位數須小於3位數,",IF(F8&lt;&gt;ROUND(F8,2),"[自然人全國第3戶-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="Q8" s="12" t="str">
+      <c r="Q8" s="11" t="str">
         <f t="shared" ref="Q8:Q14" si="5">IF(G8="","",IF(OR(G8&lt;0,G8&gt;99999999),"[自然人高價住宅貸款-撥款戶數]須為小於9位之正數,",IF(G8&lt;&gt;INT(G8),"[自然人高價住宅貸款-撥款戶數]須為整數,","")))</f>
         <v/>
       </c>
-      <c r="R8" s="12" t="str">
+      <c r="R8" s="11" t="str">
         <f t="shared" ref="R8:R14" si="6">IF(H8="","",IF(OR(H8&lt;0,H8&gt;99999999.99),"[自然人高價住宅貸款-撥款金額]須為小於9位之正數,",IF(H8&lt;&gt;ROUND(H8,2),"[自然人高價住宅貸款-撥款金額]須四捨五入至小數下2位,","")))</f>
         <v/>
       </c>
-      <c r="S8" s="12" t="str">
+      <c r="S8" s="11" t="str">
         <f t="shared" ref="S8:S14" si="7">IF(I8="","",IF(I8&gt;99.99,"[自然人高價住宅貸款-加權平均貸款成數]整數位數須小於3位數,",IF(I8&lt;&gt;ROUND(I8,2),"[自然人高價住宅貸款-加權平均貸款成數]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="T8" s="12" t="str">
+      <c r="T8" s="11" t="str">
         <f t="shared" ref="T8:T14" si="8">IF(J8="","",IF(J8&gt;99.99,"[自然人高價住宅貸款-加權平均貸款利率]整數位數須小於3位數,",IF(J8&lt;&gt;ROUND(J8,2),"[自然人高價住宅貸款-加權平均貸款利率]小數位數至多為2位,","")))</f>
         <v/>
       </c>
-      <c r="X8" s="14" t="str">
+      <c r="X8" s="13" t="str">
         <f t="shared" ref="X8:X13" si="9">IF(O8="",IF(E8&gt;60,"自然人全國第3戶貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
-      <c r="AB8" s="14" t="str">
+      <c r="AB8" s="13" t="str">
         <f t="shared" ref="AB8:AB13" si="10">IF(S8="",IF(I8&gt;60,"自然人高價住宅貸款成數最高為6成,",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="12" t="str">
+      <c r="M9" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N9" s="12" t="str">
+      <c r="N9" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O9" s="12" t="str">
+      <c r="O9" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P9" s="12" t="str">
+      <c r="P9" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q9" s="12" t="str">
+      <c r="Q9" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R9" s="12" t="str">
+      <c r="R9" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S9" s="12" t="str">
+      <c r="S9" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T9" s="12" t="str">
+      <c r="T9" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X9" s="14" t="str">
+      <c r="X9" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB9" s="14" t="str">
+      <c r="AB9" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="12" t="str">
+      <c r="M10" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N10" s="12" t="str">
+      <c r="N10" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O10" s="12" t="str">
+      <c r="O10" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P10" s="12" t="str">
+      <c r="P10" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q10" s="12" t="str">
+      <c r="Q10" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R10" s="12" t="str">
+      <c r="R10" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S10" s="12" t="str">
+      <c r="S10" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T10" s="12" t="str">
+      <c r="T10" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X10" s="14" t="str">
+      <c r="X10" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB10" s="14" t="str">
+      <c r="AB10" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="12" t="str">
+      <c r="M11" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O11" s="12" t="str">
+      <c r="O11" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P11" s="12" t="str">
+      <c r="P11" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q11" s="12" t="str">
+      <c r="Q11" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R11" s="12" t="str">
+      <c r="R11" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S11" s="12" t="str">
+      <c r="S11" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T11" s="12" t="str">
+      <c r="T11" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X11" s="14" t="str">
+      <c r="X11" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB11" s="14" t="str">
+      <c r="AB11" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="12" t="str">
+      <c r="M12" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O12" s="12" t="str">
+      <c r="O12" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P12" s="12" t="str">
+      <c r="P12" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q12" s="12" t="str">
+      <c r="Q12" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R12" s="12" t="str">
+      <c r="R12" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S12" s="12" t="str">
+      <c r="S12" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T12" s="12" t="str">
+      <c r="T12" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X12" s="14" t="str">
+      <c r="X12" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB12" s="14" t="str">
+      <c r="AB12" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="12" t="str">
+      <c r="M13" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N13" s="12" t="str">
+      <c r="N13" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O13" s="12" t="str">
+      <c r="O13" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P13" s="12" t="str">
+      <c r="P13" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q13" s="12" t="str">
+      <c r="Q13" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R13" s="12" t="str">
+      <c r="R13" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S13" s="12" t="str">
+      <c r="S13" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T13" s="12" t="str">
+      <c r="T13" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X13" s="14" t="str">
+      <c r="X13" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="AB13" s="14" t="str">
+      <c r="AB13" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:62" ht="27.9" customHeight="1">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <f>SUM(C7:C13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <f>SUM(D7:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <f>IF(D14=0,0,ROUND(SUMPRODUCT(D7:D13,E7:E13)/D14,2))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <f>IF(D14=0,0,ROUND(SUMPRODUCT(D7:D13,F7:F13)/D14,2))</f>
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <f>SUM(G7:G13)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f>SUM(H7:H13)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <f>IF(H14=0,0,ROUND(SUMPRODUCT(H7:H13,I7:I13)/H14,2))</f>
         <v>0</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <f>IF(H14=0,0,ROUND(SUMPRODUCT(H7:H13,J7:J13)/H14,2))</f>
         <v>0</v>
       </c>
@@ -3780,175 +3850,175 @@
         <f>M14&amp;N14&amp;O14&amp;P14&amp;Q14&amp;R14&amp;S14&amp;T14&amp;X14&amp;AB14&amp;V14&amp;W14&amp;Y14&amp;Z14&amp;AA14&amp;AC14</f>
         <v/>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N14" s="12" t="str">
+      <c r="N14" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O14" s="12" t="str">
+      <c r="O14" s="11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P14" s="12" t="str">
+      <c r="P14" s="11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="Q14" s="12" t="str">
+      <c r="Q14" s="11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R14" s="12" t="str">
+      <c r="R14" s="11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="S14" s="12" t="str">
+      <c r="S14" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T14" s="12" t="str">
+      <c r="T14" s="11" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="V14" s="15" t="str">
+      <c r="V14" s="14" t="str">
         <f>IF(M14="",IF(C14&lt;&gt;SUM(C7:C13),"[自然人全國第3戶-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="W14" s="15" t="str">
+      <c r="W14" s="14" t="str">
         <f>IF(N14="",IF(D14&lt;&gt;SUM(D7:D13),"[自然人全國第3戶-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="13" t="str">
         <f>IF(O14="",IF(E14&gt;60,"自然人全國第3戶貸款成數最高為6成,",IF(D14=0,"",IF(E14&lt;&gt;ROUND(SUMPRODUCT(D7:D13,E7:E13)/D14,2),"自然人全國第3戶貸款成數_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="Y14" s="15" t="str">
+      <c r="Y14" s="14" t="str">
         <f>IF(P14="",IF(D14=0,"",IF(F14&lt;&gt;ROUND(SUMPRODUCT(D7:D13,F7:F13)/D14,2),"[自然人全國第3戶-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
-      <c r="Z14" s="15" t="str">
+      <c r="Z14" s="14" t="str">
         <f>IF(Q14="",IF(G14&lt;&gt;SUM(G7:G13),"[自然人高價住宅貸款-撥款戶數]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AA14" s="15" t="str">
+      <c r="AA14" s="14" t="str">
         <f>IF(R14="",IF(H14&lt;&gt;SUM(H7:H13),"[自然人高價住宅貸款-撥款金額]_全國(合計數)錯誤,",""),"")</f>
         <v/>
       </c>
-      <c r="AB14" s="14" t="str">
+      <c r="AB14" s="13" t="str">
         <f>IF(S14="",IF(I14&gt;60,"自然人高價住宅貸款成數最高為6成,",IF(H14=0,"",IF(I14&lt;&gt;ROUND(SUMPRODUCT(H7:H13,I7:I13)/H14,2),"自然人高價住宅貸款成數_全國(合計數)錯誤,",""))),"")</f>
         <v/>
       </c>
-      <c r="AC14" s="15" t="str">
+      <c r="AC14" s="14" t="str">
         <f>IF(T14="",IF(H14=0,"",IF(J14&lt;&gt;ROUND(SUMPRODUCT(H7:H13,J7:J13)/H14,2),"[自然人高價住宅貸款-加權平均貸款利率]_全國(合計數)錯誤,","")),"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:62" ht="36.75" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:62" ht="19.8">
-      <c r="A16" s="30" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:62" ht="19.5">
+      <c r="A16" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="16" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="16" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="19.8">
-      <c r="A17" s="30" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="19.5">
+      <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="16" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="16" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="19.8">
-      <c r="A18" s="30" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="19.5">
+      <c r="A18" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="16" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.2">
-      <c r="A20" s="26" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="17">
+      <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.2">
+    <row r="21" spans="1:10" ht="17">
       <c r="A21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.2">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:10" ht="17">
+      <c r="A22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.2">
+    <row r="23" spans="1:10" ht="17">
       <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.2">
+    <row r="24" spans="1:10" ht="17">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.2">
+    <row r="25" spans="1:10" ht="17">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.2">
+    <row r="26" spans="1:10" ht="17">
       <c r="A26" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.2">
+    <row r="27" spans="1:10" ht="17">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
